--- a/Team-Data/2016-17/6-15-2016-17.xlsx
+++ b/Team-Data/2016-17/6-15-2016-17.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
         <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.519</v>
+        <v>0.524</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.451</v>
@@ -696,34 +763,34 @@
         <v>26.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O2" t="n">
         <v>18.1</v>
       </c>
       <c r="P2" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S2" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T2" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U2" t="n">
         <v>23.6</v>
       </c>
       <c r="V2" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -738,10 +805,10 @@
         <v>21.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -756,25 +823,25 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM2" t="n">
         <v>16</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -789,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>9</v>
@@ -801,16 +868,16 @@
         <v>28</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J3" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L3" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O3" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P3" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R3" t="n">
         <v>9.1</v>
@@ -899,10 +966,10 @@
         <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V3" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -911,10 +978,10 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
         <v>20.3</v>
@@ -923,10 +990,10 @@
         <v>108</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -938,16 +1005,16 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>3</v>
@@ -959,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -971,10 +1038,10 @@
         <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,7 +1115,7 @@
         <v>37.8</v>
       </c>
       <c r="J4" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
@@ -1057,58 +1124,58 @@
         <v>10.7</v>
       </c>
       <c r="M4" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O4" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
         <v>35.1</v>
       </c>
       <c r="T4" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U4" t="n">
         <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>20.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7</v>
+        <v>-6.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,25 +1187,25 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="n">
         <v>4</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
@@ -1147,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1165,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1177,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>0.425</v>
+        <v>0.439</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,19 +1297,19 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
@@ -1251,46 +1318,46 @@
         <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
         <v>23.1</v>
       </c>
       <c r="V5" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1302,13 +1369,13 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1320,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1332,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
@@ -1350,10 +1417,10 @@
         <v>27</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J6" t="n">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.444</v>
@@ -1424,34 +1491,34 @@
         <v>22.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
         <v>34.1</v>
       </c>
       <c r="T6" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U6" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V6" t="n">
         <v>13.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>4.8</v>
@@ -1463,10 +1530,10 @@
         <v>17.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC6" t="n">
         <v>0.4</v>
@@ -1478,37 +1545,37 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>6</v>
@@ -1523,25 +1590,25 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.613</v>
+        <v>0.622</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J7" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L7" t="n">
         <v>13</v>
@@ -1612,7 +1679,7 @@
         <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.748</v>
@@ -1627,13 +1694,13 @@
         <v>43.7</v>
       </c>
       <c r="U7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
         <v>4</v>
@@ -1648,22 +1715,22 @@
         <v>20.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.5</v>
+        <v>110.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>4</v>
@@ -1684,13 +1751,13 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
@@ -1702,13 +1769,13 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV7" t="n">
         <v>14</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>30</v>
@@ -1717,13 +1784,13 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>0.413</v>
+        <v>0.402</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J8" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.44</v>
@@ -1785,37 +1852,37 @@
         <v>10.7</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>14.8</v>
       </c>
       <c r="P8" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R8" t="n">
         <v>7.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U8" t="n">
         <v>20.8</v>
       </c>
       <c r="V8" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>3.7</v>
@@ -1824,19 +1891,19 @@
         <v>3.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>22</v>
@@ -1848,13 +1915,13 @@
         <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
         <v>29</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
         <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,16 +2025,16 @@
         <v>41.2</v>
       </c>
       <c r="J9" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L9" t="n">
         <v>10.6</v>
       </c>
       <c r="M9" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N9" t="n">
         <v>0.368</v>
@@ -1976,7 +2043,7 @@
         <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.774</v>
@@ -1985,16 +2052,16 @@
         <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="U9" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
@@ -2009,10 +2076,10 @@
         <v>19.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="AC9" t="n">
         <v>0.5</v>
@@ -2030,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>3</v>
@@ -2051,10 +2118,10 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
         <v>17</v>
@@ -2084,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="J10" t="n">
         <v>88.8</v>
@@ -2146,28 +2213,28 @@
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M10" t="n">
         <v>23.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="P10" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R10" t="n">
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T10" t="n">
         <v>45.7</v>
@@ -2176,7 +2243,7 @@
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>
@@ -2185,7 +2252,7 @@
         <v>3.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z10" t="n">
         <v>17.9</v>
@@ -2194,13 +2261,13 @@
         <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2212,7 +2279,7 @@
         <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2251,13 +2318,13 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="n">
         <v>25</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -2304,19 +2371,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.825</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I11" t="n">
         <v>43.1</v>
@@ -2328,31 +2395,31 @@
         <v>0.495</v>
       </c>
       <c r="L11" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="M11" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O11" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P11" t="n">
         <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
         <v>9.4</v>
       </c>
       <c r="S11" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U11" t="n">
         <v>30.4</v>
@@ -2373,16 +2440,16 @@
         <v>19.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,25 +2461,25 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>17</v>
@@ -2424,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -2486,34 +2553,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J12" t="n">
-        <v>87.5</v>
+        <v>87.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L12" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="M12" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="N12" t="n">
         <v>0.357</v>
@@ -2528,16 +2595,16 @@
         <v>0.766</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>33.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U12" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V12" t="n">
         <v>15.1</v>
@@ -2546,7 +2613,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2558,13 +2625,13 @@
         <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>115.5</v>
+        <v>115.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2576,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
         <v>12</v>
@@ -2621,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -2668,31 +2735,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J13" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.465</v>
       </c>
       <c r="L13" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M13" t="n">
         <v>23</v>
@@ -2704,67 +2771,67 @@
         <v>17.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V13" t="n">
         <v>13.8</v>
       </c>
       <c r="W13" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC13" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>10</v>
@@ -2776,13 +2843,13 @@
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>2</v>
@@ -2791,13 +2858,13 @@
         <v>23</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>16</v>
@@ -2806,19 +2873,19 @@
         <v>9</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>20</v>
       </c>
       <c r="BB13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>0.617</v>
+        <v>0.622</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>10.3</v>
@@ -2880,19 +2947,19 @@
         <v>27.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P14" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
         <v>34</v>
@@ -2901,13 +2968,13 @@
         <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V14" t="n">
         <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
         <v>4.2</v>
@@ -2919,13 +2986,13 @@
         <v>19.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2934,16 +3001,16 @@
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -2958,28 +3025,28 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>24</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>21</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.313</v>
+        <v>0.317</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3071,22 +3138,22 @@
         <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>8.199999999999999</v>
@@ -3098,7 +3165,7 @@
         <v>5.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA15" t="n">
         <v>18.5</v>
@@ -3107,10 +3174,10 @@
         <v>104.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3134,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>19</v>
@@ -3143,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3158,7 +3225,7 @@
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3214,19 +3281,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>39</v>
       </c>
       <c r="G16" t="n">
-        <v>0.519</v>
+        <v>0.524</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
         <v>36.4</v>
@@ -3238,31 +3305,31 @@
         <v>0.435</v>
       </c>
       <c r="L16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M16" t="n">
         <v>26.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R16" t="n">
         <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
         <v>21.3</v>
@@ -3274,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y16" t="n">
         <v>5</v>
@@ -3289,7 +3356,7 @@
         <v>100.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -3304,13 +3371,13 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>30</v>
@@ -3322,16 +3389,16 @@
         <v>14</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>12</v>
       </c>
       <c r="AP16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>12</v>
       </c>
       <c r="AR16" t="n">
         <v>10</v>
@@ -3349,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
         <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
         <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
         <v>9.9</v>
@@ -3429,22 +3496,22 @@
         <v>0.365</v>
       </c>
       <c r="O17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P17" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R17" t="n">
         <v>10.6</v>
       </c>
       <c r="S17" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T17" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
@@ -3453,28 +3520,28 @@
         <v>13.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>5.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA17" t="n">
         <v>18.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3486,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3504,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>28</v>
@@ -3519,25 +3586,25 @@
         <v>11</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU17" t="n">
         <v>22</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>3</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.519</v>
+        <v>0.512</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,37 +3663,37 @@
         <v>38.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L18" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P18" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T18" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U18" t="n">
         <v>24.2</v>
@@ -3635,40 +3702,40 @@
         <v>14</v>
       </c>
       <c r="W18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X18" t="n">
         <v>5.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
         <v>20.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3680,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3692,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
@@ -3713,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
@@ -3725,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>0.383</v>
+        <v>0.378</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3781,7 +3848,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L19" t="n">
         <v>7.3</v>
@@ -3799,7 +3866,7 @@
         <v>24.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
@@ -3814,7 +3881,7 @@
         <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3826,13 +3893,13 @@
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AC19" t="n">
         <v>-1.1</v>
@@ -3841,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>24</v>
@@ -3850,13 +3917,13 @@
         <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>8</v>
@@ -3895,13 +3962,13 @@
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>16</v>
@@ -3910,7 +3977,7 @@
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -3942,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.425</v>
+        <v>0.415</v>
       </c>
       <c r="H20" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
         <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>86.7</v>
+        <v>87</v>
       </c>
       <c r="K20" t="n">
         <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M20" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R20" t="n">
         <v>8.6</v>
       </c>
       <c r="S20" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
         <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB20" t="n">
         <v>104.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>2</v>
@@ -4041,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
         <v>14</v>
@@ -4050,10 +4117,10 @@
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4068,31 +4135,31 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -4124,40 +4191,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
         <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>0.383</v>
+        <v>0.378</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J21" t="n">
         <v>88.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
         <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
         <v>0.348</v>
       </c>
       <c r="O21" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P21" t="n">
         <v>21.1</v>
@@ -4169,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="S21" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T21" t="n">
         <v>45.2</v>
@@ -4178,7 +4245,7 @@
         <v>21.8</v>
       </c>
       <c r="V21" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4193,19 +4260,19 @@
         <v>20.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>24</v>
@@ -4226,7 +4293,7 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4235,16 +4302,16 @@
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS21" t="n">
         <v>17</v>
@@ -4265,10 +4332,10 @@
         <v>4</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
         <v>35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,40 +4391,40 @@
         <v>39.5</v>
       </c>
       <c r="J22" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L22" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M22" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
@@ -4375,16 +4442,16 @@
         <v>20.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
         <v>106.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -4396,16 +4463,16 @@
         <v>10</v>
       </c>
       <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>17</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16</v>
       </c>
       <c r="AL22" t="n">
         <v>26</v>
@@ -4414,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
@@ -4423,37 +4490,37 @@
         <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ22" t="n">
         <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
         <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.363</v>
+        <v>0.354</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J23" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L23" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N23" t="n">
         <v>0.328</v>
@@ -4530,43 +4597,43 @@
         <v>0.747</v>
       </c>
       <c r="R23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W23" t="n">
         <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y23" t="n">
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4587,16 +4654,16 @@
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>27</v>
@@ -4605,40 +4672,40 @@
         <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>18</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW23" t="n">
         <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
         <v>20</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>0.346</v>
+        <v>0.341</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4694,13 +4761,13 @@
         <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M24" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O24" t="n">
         <v>17</v>
@@ -4709,13 +4776,13 @@
         <v>22</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R24" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T24" t="n">
         <v>42.8</v>
@@ -4727,13 +4794,13 @@
         <v>16.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.9</v>
@@ -4742,7 +4809,7 @@
         <v>19.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC24" t="n">
         <v>-5.7</v>
@@ -4760,16 +4827,16 @@
         <v>27</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>10</v>
@@ -4778,19 +4845,19 @@
         <v>7</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>18</v>
       </c>
       <c r="AR24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS24" t="n">
         <v>19</v>
@@ -4805,13 +4872,13 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX24" t="n">
         <v>7</v>
       </c>
       <c r="AY24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>0.293</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I25" t="n">
         <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
         <v>22.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P25" t="n">
         <v>26.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R25" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S25" t="n">
         <v>33.1</v>
@@ -4918,19 +4985,19 @@
         <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA25" t="n">
         <v>22.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>29</v>
@@ -4942,7 +5009,7 @@
         <v>29</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
@@ -4951,10 +5018,10 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
         <v>28</v>
@@ -4969,10 +5036,10 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5034,13 +5101,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" t="n">
         <v>0.5</v>
@@ -5049,10 +5116,10 @@
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J26" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.459</v>
@@ -5061,22 +5128,22 @@
         <v>10.4</v>
       </c>
       <c r="M26" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S26" t="n">
         <v>33.5</v>
@@ -5085,13 +5152,13 @@
         <v>43.7</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
@@ -5100,7 +5167,7 @@
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA26" t="n">
         <v>19.8</v>
@@ -5109,10 +5176,10 @@
         <v>107.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5127,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -5142,7 +5209,7 @@
         <v>10</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -5151,7 +5218,7 @@
         <v>11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>15</v>
@@ -5160,7 +5227,7 @@
         <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
         <v>23</v>
@@ -5172,16 +5239,16 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,28 +5301,28 @@
         <v>37.9</v>
       </c>
       <c r="J27" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.461</v>
       </c>
       <c r="L27" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O27" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P27" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
         <v>8.699999999999999</v>
@@ -5273,7 +5340,7 @@
         <v>14.6</v>
       </c>
       <c r="W27" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5285,16 +5352,16 @@
         <v>20.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
         <v>102.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.1</v>
+        <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5312,7 +5379,7 @@
         <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>13</v>
@@ -5324,19 +5391,19 @@
         <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS27" t="n">
         <v>25</v>
@@ -5351,16 +5418,16 @@
         <v>21</v>
       </c>
       <c r="AW27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.738</v>
+        <v>0.744</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.469</v>
@@ -5425,37 +5492,37 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.795</v>
+        <v>0.797</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>23.8</v>
       </c>
       <c r="V28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
         <v>5.9</v>
@@ -5464,19 +5531,19 @@
         <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.1</v>
+        <v>105.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,13 +5555,13 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>14</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5509,19 +5576,19 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
         <v>7</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT28" t="n">
         <v>11</v>
@@ -5530,10 +5597,10 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW28" t="n">
         <v>11</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>2</v>
@@ -5542,10 +5609,10 @@
         <v>5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5580,70 +5647,70 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.625</v>
+        <v>0.622</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I29" t="n">
         <v>39.2</v>
       </c>
       <c r="J29" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O29" t="n">
         <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R29" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S29" t="n">
         <v>32.6</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U29" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V29" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
         <v>20.8</v>
@@ -5652,13 +5719,13 @@
         <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5670,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
         <v>16</v>
@@ -5682,13 +5749,13 @@
         <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5703,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
         <v>30</v>
@@ -5718,10 +5785,10 @@
         <v>4</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.625</v>
+        <v>0.622</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5786,34 +5853,34 @@
         <v>0.466</v>
       </c>
       <c r="L30" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M30" t="n">
         <v>26</v>
       </c>
       <c r="N30" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O30" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P30" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
         <v>9.4</v>
       </c>
       <c r="S30" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
         <v>13.6</v>
@@ -5828,19 +5895,19 @@
         <v>3.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB30" t="n">
         <v>100.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
@@ -5852,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
@@ -5870,37 +5937,37 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>29</v>
       </c>
       <c r="AX30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
         <v>49</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.605</v>
+        <v>0.598</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5968,22 +6035,22 @@
         <v>0.475</v>
       </c>
       <c r="L31" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M31" t="n">
         <v>24.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O31" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
         <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R31" t="n">
         <v>10.3</v>
@@ -5995,13 +6062,13 @@
         <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.1</v>
@@ -6016,16 +6083,16 @@
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
         <v>9</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>20</v>
@@ -6061,13 +6128,13 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6079,10 +6146,10 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>6-15-2016-17</t>
+          <t>2017-06-15</t>
         </is>
       </c>
     </row>
